--- a/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -453,22 +453,22 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>43854</v>
+        <v>43865</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Contendor de carga 20</t>
+          <t>Guía de carga</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Seguro</t>
+          <t>Carga míscelanea</t>
         </is>
       </c>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -498,67 +498,22 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>43854</v>
+        <v>43865</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TRI-AXLE CHASSIS</t>
+          <t>Cuota de peligro</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>DRAYAGE Local</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>125</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>43854</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Carga del Oceano</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>26</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Mensajero</t>
+          <t>Contendor de carga 20</t>
         </is>
       </c>
     </row>

--- a/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
@@ -1,40 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440DC35-5A31-4D86-8F77-9814BC9A8497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>IdPedido</t>
+  </si>
+  <si>
+    <t>Id_Cliente</t>
+  </si>
+  <si>
+    <t>Estatus_Pedido</t>
+  </si>
+  <si>
+    <t>Creado_desde</t>
+  </si>
+  <si>
+    <t>IDCargo</t>
+  </si>
+  <si>
+    <t>NombreCargo</t>
+  </si>
+  <si>
+    <t>IDCargo2</t>
+  </si>
+  <si>
+    <t>NombreCargo2</t>
+  </si>
+  <si>
+    <t>automated.test@grupokaizen.net</t>
+  </si>
+  <si>
+    <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Guía de carga</t>
+  </si>
+  <si>
+    <t>Carga míscelanea</t>
+  </si>
+  <si>
+    <t>Cuota de peligro</t>
+  </si>
+  <si>
+    <t>Contendor de carga 20</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,10 +114,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -60,16 +133,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,164 +439,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Idioma</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Contrasena</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>IdPedido</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Id_Cliente</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Estatus_Pedido</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Creado_desde</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>IDCargo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>NombreCargo</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IDCargo2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>NombreCargo2</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>163</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
         <v>43865</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>21</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Guía de carga</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
         <v>28</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Carga míscelanea</t>
-        </is>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>166</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
         <v>43865</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>29</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cuota de peligro</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
         <v>30</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Contendor de carga 20</t>
-        </is>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
@@ -1,105 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440DC35-5A31-4D86-8F77-9814BC9A8497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contrasena</t>
-  </si>
-  <si>
-    <t>IdPedido</t>
-  </si>
-  <si>
-    <t>Id_Cliente</t>
-  </si>
-  <si>
-    <t>Estatus_Pedido</t>
-  </si>
-  <si>
-    <t>Creado_desde</t>
-  </si>
-  <si>
-    <t>IDCargo</t>
-  </si>
-  <si>
-    <t>NombreCargo</t>
-  </si>
-  <si>
-    <t>IDCargo2</t>
-  </si>
-  <si>
-    <t>NombreCargo2</t>
-  </si>
-  <si>
-    <t>automated.test@grupokaizen.net</t>
-  </si>
-  <si>
-    <t>aeHFOx8jV/A=</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Guía de carga</t>
-  </si>
-  <si>
-    <t>Carga míscelanea</t>
-  </si>
-  <si>
-    <t>Cuota de peligro</t>
-  </si>
-  <si>
-    <t>Contendor de carga 20</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,18 +49,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -133,25 +60,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -439,121 +357,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Idioma</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Contrasena</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IdPedido</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Id_Cliente</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Estatus_Pedido</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Creado_desde</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>IDCargo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>NombreCargo</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IDCargo2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>NombreCargo2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>190</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>43868</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Contendor de carga 20</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Carga del Oceano</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>192</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>43868</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cuota de peligro</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>21</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Guía de carga</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>194</v>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43868</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TRI-AXLE CHASSIS</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Contendor de carga 20</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>196</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>43868</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Carga del Oceano</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Mensajero</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>163</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43865</v>
-      </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>166</v>
-      </c>
-      <c r="E3">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>197</v>
+      </c>
+      <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43865</v>
-      </c>
-      <c r="H3">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43868</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Seguro</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Cuota de peligro</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -453,22 +453,22 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Contendor de carga 20</t>
+          <t>Guía de carga</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Carga del Oceano</t>
+          <t>AES (Declaración de exportación del embarcador)</t>
         </is>
       </c>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -498,157 +498,22 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Cuota de peligro</t>
+          <t>DRAYAGE Local</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Guía de carga</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>194</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>43868</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TRI-AXLE CHASSIS</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Contendor de carga 20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>196</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>43868</v>
-      </c>
-      <c r="H5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Carga del Oceano</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>26</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Mensajero</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>197</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>43868</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Seguro</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>29</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Cuota de peligro</t>
+          <t>Carga míscelanea</t>
         </is>
       </c>
     </row>

--- a/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
@@ -1,40 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Contrasena</t>
+  </si>
+  <si>
+    <t>IdPedido</t>
+  </si>
+  <si>
+    <t>Id_Cliente</t>
+  </si>
+  <si>
+    <t>Estatus_Pedido</t>
+  </si>
+  <si>
+    <t>IDCargo</t>
+  </si>
+  <si>
+    <t>NombreCargo</t>
+  </si>
+  <si>
+    <t>IDCargo2</t>
+  </si>
+  <si>
+    <t>NombreCargo2</t>
+  </si>
+  <si>
+    <t>automated.test@grupokaizen.net</t>
+  </si>
+  <si>
+    <t>aeHFOx8jV/A=</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Contendor de carga 20</t>
+  </si>
+  <si>
+    <t>Carga del Oceano</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>Cuota de peligro</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,26 +105,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -357,167 +421,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Idioma</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Contrasena</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>IdPedido</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Id_Cliente</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Estatus_Pedido</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Creado_desde</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>IDCargo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>NombreCargo</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IDCargo2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>NombreCargo2</t>
-        </is>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>242</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>246</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>43867</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Guía de carga</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>22</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>AES (Declaración de exportación del embarcador)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>automated.test@grupokaizen.net</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aeHFOx8jV/A=</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>43867</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>DRAYAGE Local</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>28</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Carga míscelanea</t>
-        </is>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
+++ b/Pedidos/DataExcel/Cargos_Logisticos20pies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Idioma</t>
   </si>
@@ -44,27 +44,6 @@
   </si>
   <si>
     <t>NombreCargo2</t>
-  </si>
-  <si>
-    <t>automated.test@grupokaizen.net</t>
-  </si>
-  <si>
-    <t>aeHFOx8jV/A=</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Contendor de carga 20</t>
-  </si>
-  <si>
-    <t>Carga del Oceano</t>
-  </si>
-  <si>
-    <t>Seguro</t>
-  </si>
-  <si>
-    <t>Cuota de peligro</t>
   </si>
 </sst>
 </file>
@@ -422,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,70 +439,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>242</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>246</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
